--- a/proy_prueba/proy_files/BD.xlsx
+++ b/proy_prueba/proy_files/BD.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="4" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="98">
   <si>
     <t>Nombre</t>
   </si>
@@ -238,9 +238,6 @@
     <t xml:space="preserve">Fundacion Excepcionales </t>
   </si>
   <si>
-    <t>Clinica Alemana</t>
-  </si>
-  <si>
     <t>Clinica Las Condes</t>
   </si>
   <si>
@@ -323,6 +320,12 @@
   </si>
   <si>
     <t>DC</t>
+  </si>
+  <si>
+    <t>Clinica Alemana SF</t>
+  </si>
+  <si>
+    <t>Clinica Alemana PED</t>
   </si>
 </sst>
 </file>
@@ -938,13 +941,13 @@
         <v>60</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>10</v>
@@ -965,7 +968,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>20</v>
@@ -986,7 +989,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B4" s="21" t="s">
         <v>10</v>
@@ -1007,7 +1010,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B5" s="21" t="s">
         <v>23</v>
@@ -1028,7 +1031,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B6" s="21" t="s">
         <v>20</v>
@@ -1049,7 +1052,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>23</v>
@@ -1070,7 +1073,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B8" s="21" t="s">
         <v>23</v>
@@ -1091,7 +1094,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>38</v>
@@ -1112,7 +1115,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>38</v>
@@ -1133,7 +1136,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>10</v>
@@ -1154,7 +1157,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>10</v>
@@ -1175,7 +1178,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B13" s="21" t="s">
         <v>10</v>
@@ -1196,7 +1199,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B14" s="21" t="s">
         <v>10</v>
@@ -1224,8 +1227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85339290-7F60-4D5A-82A0-75CF0867B390}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1355,7 +1358,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>10</v>
@@ -1363,7 +1366,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>20</v>
@@ -1371,7 +1374,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>20</v>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -1395,7 +1398,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -1411,7 +1414,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -1419,7 +1422,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>20</v>
@@ -1451,7 +1454,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>23</v>
@@ -1459,7 +1462,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>23</v>
@@ -1467,7 +1470,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>23</v>
@@ -1475,7 +1478,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
@@ -1483,7 +1486,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
@@ -1571,7 +1574,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>31</v>
@@ -1579,7 +1582,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>31</v>
@@ -1635,7 +1638,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>38</v>
@@ -1683,7 +1686,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>38</v>
@@ -2551,8 +2554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H61" sqref="H61"/>
+    <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2977,7 +2980,7 @@
     </row>
     <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -3003,7 +3006,7 @@
     </row>
     <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -3029,7 +3032,7 @@
     </row>
     <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
@@ -3055,7 +3058,7 @@
     </row>
     <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -3107,7 +3110,7 @@
     </row>
     <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="7" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -3159,7 +3162,7 @@
     </row>
     <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
@@ -3185,7 +3188,7 @@
     </row>
     <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>20</v>
@@ -3289,7 +3292,7 @@
     </row>
     <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>23</v>
@@ -3315,7 +3318,7 @@
     </row>
     <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
@@ -3341,7 +3344,7 @@
     </row>
     <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
@@ -3367,7 +3370,7 @@
     </row>
     <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
@@ -3393,7 +3396,7 @@
     </row>
     <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
@@ -3679,7 +3682,7 @@
     </row>
     <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>31</v>
@@ -3705,7 +3708,7 @@
     </row>
     <row r="46" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>31</v>
@@ -3887,7 +3890,7 @@
     </row>
     <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>38</v>
@@ -4043,7 +4046,7 @@
     </row>
     <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>38</v>
@@ -4108,7 +4111,7 @@
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="A4" sqref="A4:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4533,7 +4536,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -4559,7 +4562,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -4585,7 +4588,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
@@ -4611,7 +4614,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -4663,7 +4666,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -4715,7 +4718,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
@@ -4741,7 +4744,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>20</v>
@@ -4845,7 +4848,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>23</v>
@@ -4871,7 +4874,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
@@ -4897,7 +4900,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
@@ -4923,7 +4926,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
@@ -4949,7 +4952,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
@@ -5235,7 +5238,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>31</v>
@@ -5261,7 +5264,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>31</v>
@@ -5443,7 +5446,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>38</v>
@@ -5599,7 +5602,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>38</v>
@@ -5663,8 +5666,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672D1AF0-CFD2-4A71-A16C-6968066E001B}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H58" sqref="H58"/>
+    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5995,7 +5998,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -6015,7 +6018,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -6035,7 +6038,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
@@ -6055,7 +6058,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -6095,7 +6098,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -6135,7 +6138,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
@@ -6155,7 +6158,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>20</v>
@@ -6235,7 +6238,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>23</v>
@@ -6255,7 +6258,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
@@ -6275,7 +6278,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
@@ -6295,7 +6298,7 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
@@ -6315,7 +6318,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
@@ -6535,7 +6538,7 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>31</v>
@@ -6555,7 +6558,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>31</v>
@@ -6695,7 +6698,7 @@
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>38</v>
@@ -6815,7 +6818,7 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>38</v>
@@ -6868,7 +6871,7 @@
   <dimension ref="A1:C60"/>
   <sheetViews>
     <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -7059,7 +7062,7 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>10</v>
@@ -7070,7 +7073,7 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>20</v>
@@ -7081,7 +7084,7 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>20</v>
@@ -7092,7 +7095,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>20</v>
@@ -7114,7 +7117,7 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>20</v>
@@ -7136,7 +7139,7 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>20</v>
@@ -7147,7 +7150,7 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>20</v>
@@ -7191,7 +7194,7 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>23</v>
@@ -7202,7 +7205,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>23</v>
@@ -7213,7 +7216,7 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>23</v>
@@ -7224,7 +7227,7 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>23</v>
@@ -7235,7 +7238,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>23</v>
@@ -7356,7 +7359,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>31</v>
@@ -7367,7 +7370,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="9" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>31</v>
@@ -7444,7 +7447,7 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>38</v>
@@ -7510,7 +7513,7 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>38</v>

--- a/proy_prueba/proy_files/BD.xlsx
+++ b/proy_prueba/proy_files/BD.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,18 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
-    <sheet name="Centros" sheetId="10" r:id="rId2"/>
-    <sheet name="Info_Actividades" sheetId="9" r:id="rId3"/>
-    <sheet name="Info_Practicas" sheetId="5" r:id="rId4"/>
-    <sheet name="Info_Semanas" sheetId="4" r:id="rId5"/>
-    <sheet name="Practica - I" sheetId="2" r:id="rId6"/>
-    <sheet name="Practica - II" sheetId="6" r:id="rId7"/>
-    <sheet name="Internado" sheetId="7" r:id="rId8"/>
-    <sheet name="Mencion" sheetId="8" r:id="rId9"/>
+    <sheet name="Profesores (2)" sheetId="12" r:id="rId2"/>
+    <sheet name="Centros" sheetId="10" r:id="rId3"/>
+    <sheet name="Info_Actividades" sheetId="9" r:id="rId4"/>
+    <sheet name="Info_Practicas" sheetId="5" r:id="rId5"/>
+    <sheet name="Info_Semanas" sheetId="4" r:id="rId6"/>
+    <sheet name="Practica - I" sheetId="2" r:id="rId7"/>
+    <sheet name="Practica - II" sheetId="6" r:id="rId8"/>
+    <sheet name="Internado" sheetId="7" r:id="rId9"/>
+    <sheet name="Internado_BU" sheetId="11" r:id="rId10"/>
+    <sheet name="Mencion" sheetId="8" r:id="rId11"/>
   </sheets>
   <calcPr calcId="171027" calcOnSave="0"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="105">
   <si>
     <t>Nombre</t>
   </si>
@@ -326,6 +328,27 @@
   </si>
   <si>
     <t>Clinica Alemana PED</t>
+  </si>
+  <si>
+    <t>AA</t>
+  </si>
+  <si>
+    <t>CB</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Sub Especialidad</t>
+  </si>
+  <si>
+    <t>AE</t>
+  </si>
+  <si>
+    <t>TODO</t>
+  </si>
+  <si>
+    <t>N/A</t>
   </si>
 </sst>
 </file>
@@ -409,7 +432,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -539,6 +562,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -547,7 +581,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -598,6 +632,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -624,6 +661,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -909,10 +960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -952,10 +1003,11 @@
       <c r="B2" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="21">
-        <v>1</v>
-      </c>
-      <c r="D2" s="15">
+      <c r="C2" s="36">
+        <v>1</v>
+      </c>
+      <c r="D2" s="36">
+        <f>2*C2</f>
         <v>2</v>
       </c>
       <c r="E2" s="15">
@@ -973,11 +1025,12 @@
       <c r="B3" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="21">
-        <v>2</v>
-      </c>
-      <c r="D3" s="15">
-        <v>1</v>
+      <c r="C3" s="36">
+        <v>2</v>
+      </c>
+      <c r="D3" s="36">
+        <f>2*C3+20</f>
+        <v>24</v>
       </c>
       <c r="E3" s="15">
         <v>5</v>
@@ -994,11 +1047,12 @@
       <c r="B4" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="21">
+      <c r="C4" s="36">
         <v>5</v>
       </c>
-      <c r="D4" s="15">
-        <v>3</v>
+      <c r="D4" s="36">
+        <f>2*C4</f>
+        <v>10</v>
       </c>
       <c r="E4" s="15">
         <v>5</v>
@@ -1015,10 +1069,11 @@
       <c r="B5" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="21">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15">
+      <c r="C5" s="36">
+        <v>1</v>
+      </c>
+      <c r="D5" s="36">
+        <f t="shared" ref="D5:D12" si="0">2*C5</f>
         <v>2</v>
       </c>
       <c r="E5" s="15">
@@ -1036,11 +1091,12 @@
       <c r="B6" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21">
+      <c r="C6" s="36">
         <v>6</v>
       </c>
-      <c r="D6" s="15">
-        <v>1</v>
+      <c r="D6" s="36">
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
       <c r="E6" s="15">
         <v>5</v>
@@ -1057,11 +1113,12 @@
       <c r="B7" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="21">
+      <c r="C7" s="36">
         <v>8</v>
       </c>
-      <c r="D7" s="15">
-        <v>2</v>
+      <c r="D7" s="36">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="E7" s="15">
         <v>5</v>
@@ -1078,11 +1135,12 @@
       <c r="B8" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="21">
+      <c r="C8" s="36">
         <v>8</v>
       </c>
-      <c r="D8" s="15">
-        <v>3</v>
+      <c r="D8" s="36">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="E8" s="15">
         <v>5</v>
@@ -1094,16 +1152,17 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="20" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="B9" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="21">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15">
-        <v>1</v>
+      <c r="C9" s="36">
+        <v>5.5</v>
+      </c>
+      <c r="D9" s="36">
+        <f t="shared" si="0"/>
+        <v>11</v>
       </c>
       <c r="E9" s="15">
         <v>5</v>
@@ -1115,16 +1174,17 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B10" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="21">
-        <v>8</v>
-      </c>
-      <c r="D10" s="15">
-        <v>2</v>
+      <c r="C10" s="36">
+        <v>5</v>
+      </c>
+      <c r="D10" s="36">
+        <f>2*C10+20</f>
+        <v>30</v>
       </c>
       <c r="E10" s="15">
         <v>5</v>
@@ -1136,16 +1196,17 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B11" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="21">
-        <v>1.5</v>
-      </c>
-      <c r="D11" s="15">
-        <v>1</v>
+        <v>38</v>
+      </c>
+      <c r="C11" s="36">
+        <v>8</v>
+      </c>
+      <c r="D11" s="36">
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
       <c r="E11" s="15">
         <v>5</v>
@@ -1157,78 +1218,2532 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="21">
-        <v>24</v>
-      </c>
-      <c r="D12" s="15">
-        <v>0</v>
+      <c r="C12" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="D12" s="36">
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
       <c r="E12" s="15">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="F12" s="15">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="G12" s="19"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="20" t="s">
-        <v>94</v>
+      <c r="A13" s="32" t="s">
+        <v>99</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="21">
-        <v>24</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0</v>
-      </c>
-      <c r="E13" s="15">
-        <v>0</v>
-      </c>
-      <c r="F13" s="15">
-        <v>10</v>
+        <v>31</v>
+      </c>
+      <c r="C13" s="37">
+        <v>15</v>
+      </c>
+      <c r="D13" s="36">
+        <f>10*C13</f>
+        <v>150</v>
+      </c>
+      <c r="E13" s="34">
+        <v>5</v>
+      </c>
+      <c r="F13" s="34">
+        <v>0</v>
       </c>
       <c r="G13" s="19"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="36">
+        <v>10</v>
+      </c>
+      <c r="D14" s="36">
+        <v>0</v>
+      </c>
+      <c r="E14" s="15">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>10</v>
+      </c>
+      <c r="G14" s="19"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="36">
+        <v>10</v>
+      </c>
+      <c r="D15" s="36">
+        <v>0</v>
+      </c>
+      <c r="E15" s="15">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>10</v>
+      </c>
+      <c r="G15" s="19"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
         <v>95</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="21">
-        <v>24</v>
-      </c>
-      <c r="D14" s="15">
-        <v>0</v>
-      </c>
-      <c r="E14" s="15">
-        <v>0</v>
-      </c>
-      <c r="F14" s="15">
-        <v>10</v>
-      </c>
-      <c r="G14" s="19"/>
+      <c r="B16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="36">
+        <v>10</v>
+      </c>
+      <c r="D16" s="36">
+        <v>0</v>
+      </c>
+      <c r="E16" s="15">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="36">
+        <v>10</v>
+      </c>
+      <c r="D17" s="36">
+        <v>0</v>
+      </c>
+      <c r="E17" s="15">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0B460B-E646-4BF3-9DE7-50AC03B93FB6}">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:F60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
+        <v>2</v>
+      </c>
+      <c r="E3" s="22">
+        <v>3</v>
+      </c>
+      <c r="F3" s="22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1</v>
+      </c>
+      <c r="E8" s="1">
+        <v>1</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>1</v>
+      </c>
+      <c r="D9" s="1">
+        <v>2</v>
+      </c>
+      <c r="E9" s="1">
+        <v>1</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>1</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>2</v>
+      </c>
+      <c r="E12" s="1">
+        <v>1</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1</v>
+      </c>
+      <c r="E13" s="1">
+        <v>2</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>2</v>
+      </c>
+      <c r="E14" s="1">
+        <v>2</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>2</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>2</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>1</v>
+      </c>
+      <c r="E18" s="1">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>1</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1</v>
+      </c>
+      <c r="E20" s="1">
+        <v>2</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>2</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1</v>
+      </c>
+      <c r="D22" s="1">
+        <v>2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>2</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>2</v>
+      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>1</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1</v>
+      </c>
+      <c r="E25" s="1">
+        <v>2</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>2</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <v>1</v>
+      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>1</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>2</v>
+      </c>
+      <c r="E29" s="1">
+        <v>2</v>
+      </c>
+      <c r="F29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1">
+        <v>2</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>1</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
+        <v>2</v>
+      </c>
+      <c r="D35" s="1">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>2</v>
+      </c>
+      <c r="E36" s="1">
+        <v>1</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
+      <c r="D37" s="1">
+        <v>1</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>1</v>
+      </c>
+      <c r="F39" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1">
+        <v>2</v>
+      </c>
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>1</v>
+      </c>
+      <c r="F41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1">
+        <v>1</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1">
+        <v>2</v>
+      </c>
+      <c r="D44" s="1">
+        <v>1</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1">
+        <v>2</v>
+      </c>
+      <c r="D45" s="1">
+        <v>2</v>
+      </c>
+      <c r="E45" s="1">
+        <v>1</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="1">
+        <v>1</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="1">
+        <v>1</v>
+      </c>
+      <c r="D47" s="1">
+        <v>1</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="1">
+        <v>1</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>1</v>
+      </c>
+      <c r="E50" s="1">
+        <v>2</v>
+      </c>
+      <c r="F50" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1">
+        <v>1</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>1</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>2</v>
+      </c>
+      <c r="E53" s="1">
+        <v>1</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>2</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1">
+        <v>1</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1">
+        <v>2</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>1</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1">
+        <v>2</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>1</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="1">
+        <v>2</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>2</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1">
+        <v>2</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>1</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25823ED0-5F47-444C-8D9B-6CBD85C1FF51}">
+  <dimension ref="A1:C60"/>
+  <sheetViews>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E4620EF-E534-43A2-B37F-59F6F8CCC8B6}">
+  <dimension ref="A1:L17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J3" sqref="J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.375" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.125" customWidth="1"/>
+    <col min="4" max="4" width="14.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" s="15" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="K1" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="L1" s="35" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="B2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="36">
+        <v>1</v>
+      </c>
+      <c r="E2" s="36">
+        <f>2*D2</f>
+        <v>2</v>
+      </c>
+      <c r="F2" s="15">
+        <v>5</v>
+      </c>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
+      <c r="I2" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2">
+        <f ca="1">SUMIF($B$2:$C$17,$I2,D$2:D$17)</f>
+        <v>47.5</v>
+      </c>
+      <c r="K2">
+        <f t="shared" ref="K2:K6" ca="1" si="0">SUMIF($B$2:$C$17,$I2,E$2:E$17)</f>
+        <v>15</v>
+      </c>
+      <c r="L2">
+        <f ca="1">SUM(J2:K2)</f>
+        <v>62.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="B3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="36">
+        <v>2</v>
+      </c>
+      <c r="E3" s="36">
+        <f>2*D3+20</f>
+        <v>24</v>
+      </c>
+      <c r="F3" s="15">
+        <v>5</v>
+      </c>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
+      <c r="I3" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ref="J3:J6" ca="1" si="1">SUMIF($B$2:$C$17,$I3,D$2:D$17)</f>
+        <v>8</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="L3">
+        <f ca="1">SUM(J3:K3)</f>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="36">
+        <v>5</v>
+      </c>
+      <c r="E4" s="36">
+        <f>2*D4</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="15">
+        <v>5</v>
+      </c>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
+      <c r="I4" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4">
+        <f t="shared" ca="1" si="1"/>
+        <v>17</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ca="1" si="0"/>
+        <v>34</v>
+      </c>
+      <c r="L4">
+        <f ca="1">SUM(J4:K4)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="36">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36">
+        <f t="shared" ref="E5:E12" si="2">2*D5</f>
+        <v>2</v>
+      </c>
+      <c r="F5" s="15">
+        <v>5</v>
+      </c>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
+      <c r="I5" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="1"/>
+        <v>18.5</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="0"/>
+        <v>57</v>
+      </c>
+      <c r="L5">
+        <f ca="1">SUM(J5:K5)</f>
+        <v>75.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="36">
+        <v>6</v>
+      </c>
+      <c r="E6" s="36">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="F6" s="15">
+        <v>5</v>
+      </c>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6">
+        <f t="shared" ca="1" si="1"/>
+        <v>45</v>
+      </c>
+      <c r="K6">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="L6">
+        <f ca="1">SUM(J6:K6)</f>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="36">
+        <v>8</v>
+      </c>
+      <c r="E7" s="36">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F7" s="15">
+        <v>5</v>
+      </c>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="36">
+        <v>8</v>
+      </c>
+      <c r="E8" s="36">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F8" s="15">
+        <v>5</v>
+      </c>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="36">
+        <v>5.5</v>
+      </c>
+      <c r="E9" s="36">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="F9" s="15">
+        <v>5</v>
+      </c>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B10" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="36">
+        <v>5</v>
+      </c>
+      <c r="E10" s="36">
+        <f>2*D10+20</f>
+        <v>30</v>
+      </c>
+      <c r="F10" s="15">
+        <v>5</v>
+      </c>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="36">
+        <v>8</v>
+      </c>
+      <c r="E11" s="36">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="F11" s="15">
+        <v>5</v>
+      </c>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="36">
+        <v>1.5</v>
+      </c>
+      <c r="E12" s="36">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F12" s="15">
+        <v>5</v>
+      </c>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="37">
+        <v>15</v>
+      </c>
+      <c r="E13" s="36">
+        <f>3*D13</f>
+        <v>45</v>
+      </c>
+      <c r="F13" s="34">
+        <v>5</v>
+      </c>
+      <c r="G13" s="34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="36">
+        <v>10</v>
+      </c>
+      <c r="E14" s="36">
+        <v>0</v>
+      </c>
+      <c r="F14" s="15">
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="36">
+        <v>10</v>
+      </c>
+      <c r="E15" s="36">
+        <v>0</v>
+      </c>
+      <c r="F15" s="15">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B16" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="36">
+        <v>10</v>
+      </c>
+      <c r="E16" s="36">
+        <v>0</v>
+      </c>
+      <c r="F16" s="15">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="36">
+        <v>10</v>
+      </c>
+      <c r="E17" s="36">
+        <v>0</v>
+      </c>
+      <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{85339290-7F60-4D5A-82A0-75CF0867B390}">
   <dimension ref="A1:B58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A58"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1705,7 +4220,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34CF7C4F-F57B-400D-A89C-D3BB07A57D73}">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1752,7 +4267,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21431047-5C2D-4800-8957-5FDB18A1403A}">
   <dimension ref="A1:C5"/>
   <sheetViews>
@@ -1823,7 +4338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C443F7A-E822-4804-97E7-F39A03E7855F}">
   <dimension ref="A1:D42"/>
   <sheetViews>
@@ -2550,12 +5065,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
     <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A60"/>
+      <selection activeCell="L51" sqref="L51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2565,28 +5080,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="26"/>
-      <c r="E2" s="26"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="26"/>
-      <c r="H2" s="26"/>
+      <c r="D2" s="27"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -4106,12 +6621,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB10B6C-F9E3-463C-8262-59705ECEB05D}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A60"/>
+    <sheetView topLeftCell="A35" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4121,28 +6636,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="26" t="s">
+      <c r="A1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="25"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="30"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -5662,12 +8177,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672D1AF0-CFD2-4A71-A16C-6968066E001B}">
   <dimension ref="A1:F60"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:A60"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5677,24 +8192,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="30"/>
-      <c r="B1" s="30"/>
-      <c r="C1" s="28" t="s">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="30"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="30"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="31"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="29" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="30"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -6864,679 +9379,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25823ED0-5F47-444C-8D9B-6CBD85C1FF51}">
-  <dimension ref="A1:C60"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="30.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="22"/>
-      <c r="B1" s="23"/>
-      <c r="C1" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="24"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="12" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:B2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/proy_prueba/proy_files/BD.xlsx
+++ b/proy_prueba/proy_files/BD.xlsx
@@ -9,20 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" tabRatio="500" firstSheet="6" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profesores" sheetId="1" r:id="rId1"/>
-    <sheet name="Profesores (2)" sheetId="12" r:id="rId2"/>
+    <sheet name="Profesores_BU" sheetId="12" r:id="rId2"/>
     <sheet name="Centros" sheetId="10" r:id="rId3"/>
     <sheet name="Info_Actividades" sheetId="9" r:id="rId4"/>
     <sheet name="Info_Practicas" sheetId="5" r:id="rId5"/>
     <sheet name="Info_Semanas" sheetId="4" r:id="rId6"/>
     <sheet name="Practica - I" sheetId="2" r:id="rId7"/>
-    <sheet name="Practica - II" sheetId="6" r:id="rId8"/>
-    <sheet name="Internado" sheetId="7" r:id="rId9"/>
-    <sheet name="Internado_BU" sheetId="11" r:id="rId10"/>
-    <sheet name="Mencion" sheetId="8" r:id="rId11"/>
+    <sheet name="Practica - I_BU" sheetId="13" r:id="rId8"/>
+    <sheet name="Practica - II" sheetId="6" r:id="rId9"/>
+    <sheet name="Internado" sheetId="7" r:id="rId10"/>
+    <sheet name="Internado_BU" sheetId="11" r:id="rId11"/>
+    <sheet name="Mencion" sheetId="8" r:id="rId12"/>
   </sheets>
   <calcPr calcId="171027" calcOnSave="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="105">
   <si>
     <t>Nombre</t>
   </si>
@@ -581,7 +582,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -625,7 +626,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -635,6 +635,17 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -661,20 +672,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -962,8 +959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -983,362 +980,398 @@
         <v>1</v>
       </c>
       <c r="C1" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>82</v>
       </c>
-      <c r="G1" s="19"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="36">
-        <v>1</v>
-      </c>
-      <c r="D2" s="36">
-        <f>2*C2</f>
+      <c r="B2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
+        <f>2*D2</f>
         <v>2</v>
       </c>
-      <c r="E2" s="15">
+      <c r="F2" s="15">
         <v>5</v>
       </c>
-      <c r="F2" s="15">
-        <v>0</v>
-      </c>
-      <c r="G2" s="19"/>
+      <c r="G2" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D3" s="15">
         <v>2</v>
       </c>
-      <c r="D3" s="36">
-        <f>2*C3+20</f>
+      <c r="E3" s="15">
+        <f>2*D3+20</f>
         <v>24</v>
       </c>
-      <c r="E3" s="15">
+      <c r="F3" s="15">
         <v>5</v>
       </c>
-      <c r="F3" s="15">
-        <v>0</v>
-      </c>
-      <c r="G3" s="19"/>
+      <c r="G3" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="36">
+      <c r="B4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D4" s="15">
         <v>5</v>
       </c>
-      <c r="D4" s="36">
-        <f>2*C4</f>
-        <v>10</v>
-      </c>
       <c r="E4" s="15">
+        <f>2*D4</f>
+        <v>10</v>
+      </c>
+      <c r="F4" s="15">
         <v>5</v>
       </c>
-      <c r="F4" s="15">
-        <v>0</v>
-      </c>
-      <c r="G4" s="19"/>
+      <c r="G4" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="36">
-        <v>1</v>
-      </c>
-      <c r="D5" s="36">
-        <f t="shared" ref="D5:D12" si="0">2*C5</f>
+      <c r="C5" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <f t="shared" ref="E5:E12" si="0">2*D5</f>
         <v>2</v>
       </c>
-      <c r="E5" s="15">
+      <c r="F5" s="15">
         <v>5</v>
       </c>
-      <c r="F5" s="15">
-        <v>0</v>
-      </c>
-      <c r="G5" s="19"/>
+      <c r="G5" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="36">
+      <c r="C6" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6" s="15">
         <v>6</v>
       </c>
-      <c r="D6" s="36">
+      <c r="E6" s="15">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="E6" s="15">
+      <c r="F6" s="15">
         <v>5</v>
       </c>
-      <c r="F6" s="15">
-        <v>0</v>
-      </c>
-      <c r="G6" s="19"/>
+      <c r="G6" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="36">
+      <c r="C7" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="15">
         <v>8</v>
       </c>
-      <c r="D7" s="36">
+      <c r="E7" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E7" s="15">
+      <c r="F7" s="15">
         <v>5</v>
       </c>
-      <c r="F7" s="15">
-        <v>0</v>
-      </c>
-      <c r="G7" s="19"/>
+      <c r="G7" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="36">
+      <c r="C8" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="15">
         <v>8</v>
       </c>
-      <c r="D8" s="36">
+      <c r="E8" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E8" s="15">
+      <c r="F8" s="15">
         <v>5</v>
       </c>
-      <c r="F8" s="15">
-        <v>0</v>
-      </c>
-      <c r="G8" s="19"/>
+      <c r="G8" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="36">
+      <c r="C9" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="15">
         <v>5.5</v>
       </c>
-      <c r="D9" s="36">
+      <c r="E9" s="15">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="E9" s="15">
+      <c r="F9" s="15">
         <v>5</v>
       </c>
-      <c r="F9" s="15">
-        <v>0</v>
-      </c>
-      <c r="G9" s="19"/>
+      <c r="G9" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="36">
+      <c r="C10" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D10" s="15">
         <v>5</v>
       </c>
-      <c r="D10" s="36">
-        <f>2*C10+20</f>
+      <c r="E10" s="15">
+        <f>2*D10+20</f>
         <v>30</v>
       </c>
-      <c r="E10" s="15">
+      <c r="F10" s="15">
         <v>5</v>
       </c>
-      <c r="F10" s="15">
-        <v>0</v>
-      </c>
-      <c r="G10" s="19"/>
+      <c r="G10" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="36">
+      <c r="C11" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D11" s="15">
         <v>8</v>
       </c>
-      <c r="D11" s="36">
+      <c r="E11" s="15">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="E11" s="15">
+      <c r="F11" s="15">
         <v>5</v>
       </c>
-      <c r="F11" s="15">
-        <v>0</v>
-      </c>
-      <c r="G11" s="19"/>
+      <c r="G11" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="36">
+      <c r="B12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D12" s="15">
         <v>1.5</v>
       </c>
-      <c r="D12" s="36">
+      <c r="E12" s="15">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="E12" s="15">
+      <c r="F12" s="15">
         <v>5</v>
       </c>
-      <c r="F12" s="15">
-        <v>0</v>
-      </c>
-      <c r="G12" s="19"/>
+      <c r="G12" s="15">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="C13" s="37">
+      <c r="B13" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="15">
         <v>15</v>
       </c>
-      <c r="D13" s="36">
-        <f>10*C13</f>
+      <c r="E13" s="15">
+        <f>10*D13</f>
         <v>150</v>
       </c>
-      <c r="E13" s="34">
+      <c r="F13" s="25">
         <v>5</v>
       </c>
-      <c r="F13" s="34">
-        <v>0</v>
-      </c>
-      <c r="G13" s="19"/>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="36">
-        <v>10</v>
-      </c>
-      <c r="D14" s="36">
-        <v>0</v>
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="15">
+        <v>10</v>
       </c>
       <c r="E14" s="15">
         <v>0</v>
       </c>
       <c r="F14" s="15">
-        <v>10</v>
-      </c>
-      <c r="G14" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="15">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="36">
-        <v>10</v>
-      </c>
-      <c r="D15" s="36">
-        <v>0</v>
+      <c r="B15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D15" s="15">
+        <v>10</v>
       </c>
       <c r="E15" s="15">
         <v>0</v>
       </c>
       <c r="F15" s="15">
-        <v>10</v>
-      </c>
-      <c r="G15" s="19"/>
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>10</v>
+      </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="36">
-        <v>10</v>
-      </c>
-      <c r="D16" s="36">
-        <v>0</v>
+      <c r="B16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="15">
+        <v>10</v>
       </c>
       <c r="E16" s="15">
         <v>0</v>
       </c>
       <c r="F16" s="15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="36">
-        <v>10</v>
-      </c>
-      <c r="D17" s="36">
-        <v>0</v>
+      <c r="B17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="D17" s="15">
+        <v>10</v>
       </c>
       <c r="E17" s="15">
         <v>0</v>
       </c>
       <c r="F17" s="15">
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
         <v>10</v>
       </c>
     </row>
@@ -1348,6 +1381,1210 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672D1AF0-CFD2-4A71-A16C-6968066E001B}">
+  <dimension ref="A1:F60"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="14">
+        <v>1</v>
+      </c>
+      <c r="D3" s="14">
+        <v>2</v>
+      </c>
+      <c r="E3" s="14">
+        <v>3</v>
+      </c>
+      <c r="F3" s="14">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1">
+        <v>0</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0</v>
+      </c>
+      <c r="D12" s="1">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="1">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1">
+        <v>0</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="1">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="1">
+        <v>0</v>
+      </c>
+      <c r="D19" s="1">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1">
+        <v>0</v>
+      </c>
+      <c r="F19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="1">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1">
+        <v>0</v>
+      </c>
+      <c r="F20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="1">
+        <v>0</v>
+      </c>
+      <c r="D21" s="1">
+        <v>0</v>
+      </c>
+      <c r="E21" s="1">
+        <v>0</v>
+      </c>
+      <c r="F21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <v>0</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="1">
+        <v>0</v>
+      </c>
+      <c r="D23" s="1">
+        <v>0</v>
+      </c>
+      <c r="E23" s="1">
+        <v>0</v>
+      </c>
+      <c r="F23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="1">
+        <v>0</v>
+      </c>
+      <c r="D24" s="1">
+        <v>0</v>
+      </c>
+      <c r="E24" s="1">
+        <v>0</v>
+      </c>
+      <c r="F24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0</v>
+      </c>
+      <c r="E29" s="1">
+        <v>0</v>
+      </c>
+      <c r="F29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="1">
+        <v>0</v>
+      </c>
+      <c r="D30" s="1">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1">
+        <v>0</v>
+      </c>
+      <c r="F30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="1">
+        <v>0</v>
+      </c>
+      <c r="D31" s="1">
+        <v>0</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0</v>
+      </c>
+      <c r="F31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <v>0</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1">
+        <v>0</v>
+      </c>
+      <c r="D34" s="1">
+        <v>0</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <v>0</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="1">
+        <v>0</v>
+      </c>
+      <c r="D36" s="1">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1">
+        <v>0</v>
+      </c>
+      <c r="F36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="1">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1">
+        <v>0</v>
+      </c>
+      <c r="E37" s="1">
+        <v>0</v>
+      </c>
+      <c r="F37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="1">
+        <v>0</v>
+      </c>
+      <c r="D38" s="1">
+        <v>0</v>
+      </c>
+      <c r="E38" s="1">
+        <v>0</v>
+      </c>
+      <c r="F38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="1">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>0</v>
+      </c>
+      <c r="E39" s="1">
+        <v>0</v>
+      </c>
+      <c r="F39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="1">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1">
+        <v>0</v>
+      </c>
+      <c r="E40" s="1">
+        <v>0</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <v>0</v>
+      </c>
+      <c r="E41" s="1">
+        <v>0</v>
+      </c>
+      <c r="F41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="1">
+        <v>0</v>
+      </c>
+      <c r="D42" s="1">
+        <v>0</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="1">
+        <v>0</v>
+      </c>
+      <c r="D43" s="1">
+        <v>0</v>
+      </c>
+      <c r="E43" s="1">
+        <v>0</v>
+      </c>
+      <c r="F43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>0</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="1">
+        <v>0</v>
+      </c>
+      <c r="D45" s="1">
+        <v>0</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <v>0</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="1">
+        <v>0</v>
+      </c>
+      <c r="D47" s="1">
+        <v>0</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="F47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="1">
+        <v>0</v>
+      </c>
+      <c r="D48" s="1">
+        <v>0</v>
+      </c>
+      <c r="E48" s="1">
+        <v>0</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="1">
+        <v>0</v>
+      </c>
+      <c r="D49" s="1">
+        <v>0</v>
+      </c>
+      <c r="E49" s="1">
+        <v>0</v>
+      </c>
+      <c r="F49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1">
+        <v>0</v>
+      </c>
+      <c r="F50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="1">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1">
+        <v>0</v>
+      </c>
+      <c r="E51" s="1">
+        <v>0</v>
+      </c>
+      <c r="F51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>0</v>
+      </c>
+      <c r="E52" s="1">
+        <v>0</v>
+      </c>
+      <c r="F52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="1">
+        <v>0</v>
+      </c>
+      <c r="D53" s="1">
+        <v>0</v>
+      </c>
+      <c r="E53" s="1">
+        <v>0</v>
+      </c>
+      <c r="F53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="1">
+        <v>0</v>
+      </c>
+      <c r="D54" s="1">
+        <v>0</v>
+      </c>
+      <c r="E54" s="1">
+        <v>0</v>
+      </c>
+      <c r="F54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="1">
+        <v>0</v>
+      </c>
+      <c r="D55" s="1">
+        <v>0</v>
+      </c>
+      <c r="E55" s="1">
+        <v>0</v>
+      </c>
+      <c r="F55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="1">
+        <v>0</v>
+      </c>
+      <c r="D56" s="1">
+        <v>0</v>
+      </c>
+      <c r="E56" s="1">
+        <v>0</v>
+      </c>
+      <c r="F56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="1">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1">
+        <v>0</v>
+      </c>
+      <c r="E57" s="1">
+        <v>0</v>
+      </c>
+      <c r="F57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="1">
+        <v>0</v>
+      </c>
+      <c r="D58" s="1">
+        <v>0</v>
+      </c>
+      <c r="E58" s="1">
+        <v>0</v>
+      </c>
+      <c r="F58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0</v>
+      </c>
+      <c r="D59" s="1">
+        <v>0</v>
+      </c>
+      <c r="E59" s="1">
+        <v>0</v>
+      </c>
+      <c r="F59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0</v>
+      </c>
+      <c r="D60" s="1">
+        <v>0</v>
+      </c>
+      <c r="E60" s="1">
+        <v>0</v>
+      </c>
+      <c r="F60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="C2:F2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F0B460B-E646-4BF3-9DE7-50AC03B93FB6}">
   <dimension ref="A1:F60"/>
   <sheetViews>
@@ -1362,24 +2599,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="29" t="s">
+      <c r="A1" s="35"/>
+      <c r="B1" s="35"/>
+      <c r="C1" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="34"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="29" t="s">
+      <c r="A2" s="35"/>
+      <c r="B2" s="35"/>
+      <c r="C2" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="34"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -1388,16 +2625,16 @@
       <c r="B3" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="22">
-        <v>1</v>
-      </c>
-      <c r="D3" s="22">
+      <c r="C3" s="21">
+        <v>1</v>
+      </c>
+      <c r="D3" s="21">
         <v>2</v>
       </c>
-      <c r="E3" s="22">
+      <c r="E3" s="21">
         <v>3</v>
       </c>
-      <c r="F3" s="22">
+      <c r="F3" s="21">
         <v>4</v>
       </c>
     </row>
@@ -2551,7 +3788,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{25823ED0-5F47-444C-8D9B-6CBD85C1FF51}">
   <dimension ref="A1:C60"/>
   <sheetViews>
@@ -2567,15 +3804,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
       <c r="C1" s="12" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
       <c r="C2" s="12" t="s">
         <v>8</v>
       </c>
@@ -3231,7 +4468,7 @@
   <dimension ref="A1:L17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection sqref="A1:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3274,24 +4511,24 @@
       <c r="K1" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="L1" s="35" t="s">
+      <c r="L1" s="26" t="s">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D2" s="36">
-        <v>1</v>
-      </c>
-      <c r="E2" s="36">
+      <c r="D2" s="15">
+        <v>1</v>
+      </c>
+      <c r="E2" s="15">
         <f>2*D2</f>
         <v>2</v>
       </c>
@@ -3301,7 +4538,7 @@
       <c r="G2" s="15">
         <v>0</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="I2" s="20" t="s">
         <v>10</v>
       </c>
       <c r="J2">
@@ -3318,19 +4555,19 @@
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D3" s="36">
+      <c r="D3" s="15">
         <v>2</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="15">
         <f>2*D3+20</f>
         <v>24</v>
       </c>
@@ -3340,7 +4577,7 @@
       <c r="G3" s="15">
         <v>0</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="20" t="s">
         <v>20</v>
       </c>
       <c r="J3">
@@ -3357,19 +4594,19 @@
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" s="20" t="s">
+      <c r="A4" s="19" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="21" t="s">
+      <c r="B4" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D4" s="36">
+      <c r="D4" s="15">
         <v>5</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="15">
         <f>2*D4</f>
         <v>10</v>
       </c>
@@ -3379,7 +4616,7 @@
       <c r="G4" s="15">
         <v>0</v>
       </c>
-      <c r="I4" s="21" t="s">
+      <c r="I4" s="20" t="s">
         <v>23</v>
       </c>
       <c r="J4">
@@ -3396,19 +4633,19 @@
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A5" s="20" t="s">
+      <c r="A5" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="21" t="s">
+      <c r="B5" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="36">
-        <v>1</v>
-      </c>
-      <c r="E5" s="36">
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
         <f t="shared" ref="E5:E12" si="2">2*D5</f>
         <v>2</v>
       </c>
@@ -3418,7 +4655,7 @@
       <c r="G5" s="15">
         <v>0</v>
       </c>
-      <c r="I5" s="21" t="s">
+      <c r="I5" s="20" t="s">
         <v>38</v>
       </c>
       <c r="J5">
@@ -3435,19 +4672,19 @@
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="21" t="s">
+      <c r="B6" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D6" s="36">
+      <c r="D6" s="15">
         <v>6</v>
       </c>
-      <c r="E6" s="36">
+      <c r="E6" s="15">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -3457,7 +4694,7 @@
       <c r="G6" s="15">
         <v>0</v>
       </c>
-      <c r="I6" s="33" t="s">
+      <c r="I6" s="24" t="s">
         <v>31</v>
       </c>
       <c r="J6">
@@ -3474,19 +4711,19 @@
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="20" t="s">
+      <c r="A7" s="19" t="s">
         <v>88</v>
       </c>
-      <c r="B7" s="21" t="s">
+      <c r="B7" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="21" t="s">
+      <c r="C7" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="36">
+      <c r="D7" s="15">
         <v>8</v>
       </c>
-      <c r="E7" s="36">
+      <c r="E7" s="15">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -3498,19 +4735,19 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="20" t="s">
+      <c r="A8" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B8" s="21" t="s">
+      <c r="B8" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="21" t="s">
+      <c r="C8" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="36">
+      <c r="D8" s="15">
         <v>8</v>
       </c>
-      <c r="E8" s="36">
+      <c r="E8" s="15">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -3522,19 +4759,19 @@
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="20" t="s">
+      <c r="A9" s="19" t="s">
         <v>102</v>
       </c>
-      <c r="B9" s="21" t="s">
+      <c r="B9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="36">
+      <c r="D9" s="15">
         <v>5.5</v>
       </c>
-      <c r="E9" s="36">
+      <c r="E9" s="15">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
@@ -3546,19 +4783,19 @@
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="20" t="s">
+      <c r="A10" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="21" t="s">
+      <c r="B10" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="21" t="s">
+      <c r="C10" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D10" s="36">
+      <c r="D10" s="15">
         <v>5</v>
       </c>
-      <c r="E10" s="36">
+      <c r="E10" s="15">
         <f>2*D10+20</f>
         <v>30</v>
       </c>
@@ -3570,19 +4807,19 @@
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="20" t="s">
+      <c r="A11" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B11" s="21" t="s">
+      <c r="B11" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D11" s="36">
+      <c r="D11" s="15">
         <v>8</v>
       </c>
-      <c r="E11" s="36">
+      <c r="E11" s="15">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
@@ -3594,19 +4831,19 @@
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="20" t="s">
+      <c r="A12" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B12" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="21" t="s">
+      <c r="B12" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D12" s="36">
+      <c r="D12" s="15">
         <v>1.5</v>
       </c>
-      <c r="E12" s="36">
+      <c r="E12" s="15">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
@@ -3618,43 +4855,43 @@
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="23" t="s">
         <v>99</v>
       </c>
-      <c r="B13" s="33" t="s">
+      <c r="B13" s="24" t="s">
         <v>103</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="C13" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D13" s="37">
+      <c r="D13" s="15">
         <v>15</v>
       </c>
-      <c r="E13" s="36">
-        <f>3*D13</f>
-        <v>45</v>
-      </c>
-      <c r="F13" s="34">
+      <c r="E13" s="15">
+        <f>10*D13</f>
+        <v>150</v>
+      </c>
+      <c r="F13" s="25">
         <v>5</v>
       </c>
-      <c r="G13" s="34">
+      <c r="G13" s="25">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+      <c r="A14" s="19" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="21" t="s">
+      <c r="B14" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D14" s="36">
-        <v>10</v>
-      </c>
-      <c r="E14" s="36">
+      <c r="D14" s="15">
+        <v>10</v>
+      </c>
+      <c r="E14" s="15">
         <v>0</v>
       </c>
       <c r="F14" s="15">
@@ -3665,19 +4902,19 @@
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>94</v>
       </c>
-      <c r="B15" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="21" t="s">
+      <c r="B15" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D15" s="36">
-        <v>10</v>
-      </c>
-      <c r="E15" s="36">
+      <c r="D15" s="15">
+        <v>10</v>
+      </c>
+      <c r="E15" s="15">
         <v>0</v>
       </c>
       <c r="F15" s="15">
@@ -3688,19 +4925,19 @@
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+      <c r="A16" s="19" t="s">
         <v>95</v>
       </c>
-      <c r="B16" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="21" t="s">
+      <c r="B16" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D16" s="36">
-        <v>10</v>
-      </c>
-      <c r="E16" s="36">
+      <c r="D16" s="15">
+        <v>10</v>
+      </c>
+      <c r="E16" s="15">
         <v>0</v>
       </c>
       <c r="F16" s="15">
@@ -3711,19 +4948,19 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+      <c r="A17" s="19" t="s">
         <v>98</v>
       </c>
-      <c r="B17" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="21" t="s">
+      <c r="B17" s="20" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="D17" s="36">
-        <v>10</v>
-      </c>
-      <c r="E17" s="36">
+      <c r="D17" s="15">
+        <v>10</v>
+      </c>
+      <c r="E17" s="15">
         <v>0</v>
       </c>
       <c r="F17" s="15">
@@ -5069,8 +6306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H60"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L51" sqref="L51"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2:H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -5080,28 +6317,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="27" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
     </row>
     <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
@@ -6622,6 +7859,1562 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0848F46F-E497-47FF-B55E-A815CC13A979}">
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView topLeftCell="A36" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:H60"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+    </row>
+    <row r="3" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="22">
+        <v>1</v>
+      </c>
+      <c r="D3" s="22">
+        <v>2</v>
+      </c>
+      <c r="E3" s="22">
+        <v>3</v>
+      </c>
+      <c r="F3" s="22">
+        <v>4</v>
+      </c>
+      <c r="G3" s="22">
+        <v>5</v>
+      </c>
+      <c r="H3" s="22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" s="17">
+        <v>2</v>
+      </c>
+      <c r="D4" s="18">
+        <v>1</v>
+      </c>
+      <c r="E4" s="18">
+        <v>1</v>
+      </c>
+      <c r="F4" s="18">
+        <v>1</v>
+      </c>
+      <c r="G4" s="18">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="17">
+        <v>1</v>
+      </c>
+      <c r="D5" s="18">
+        <v>1</v>
+      </c>
+      <c r="E5" s="18">
+        <v>1</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="18">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="17">
+        <v>1</v>
+      </c>
+      <c r="D6" s="18">
+        <v>1</v>
+      </c>
+      <c r="E6" s="18">
+        <v>1</v>
+      </c>
+      <c r="F6" s="18">
+        <v>1</v>
+      </c>
+      <c r="G6" s="18">
+        <v>1</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="17">
+        <v>0</v>
+      </c>
+      <c r="D7" s="18">
+        <v>1</v>
+      </c>
+      <c r="E7" s="18">
+        <v>1</v>
+      </c>
+      <c r="F7" s="18">
+        <v>1</v>
+      </c>
+      <c r="G7" s="18">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="17">
+        <v>0</v>
+      </c>
+      <c r="D8" s="18">
+        <v>1</v>
+      </c>
+      <c r="E8" s="18">
+        <v>1</v>
+      </c>
+      <c r="F8" s="18">
+        <v>1</v>
+      </c>
+      <c r="G8" s="18">
+        <v>1</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="17">
+        <v>0</v>
+      </c>
+      <c r="D9" s="18">
+        <v>1</v>
+      </c>
+      <c r="E9" s="18">
+        <v>1</v>
+      </c>
+      <c r="F9" s="18">
+        <v>1</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17">
+        <v>0</v>
+      </c>
+      <c r="D10" s="18">
+        <v>1</v>
+      </c>
+      <c r="E10" s="18">
+        <v>1</v>
+      </c>
+      <c r="F10" s="18">
+        <v>1</v>
+      </c>
+      <c r="G10" s="18">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="17">
+        <v>0</v>
+      </c>
+      <c r="D11" s="18">
+        <v>1</v>
+      </c>
+      <c r="E11" s="18">
+        <v>1</v>
+      </c>
+      <c r="F11" s="18">
+        <v>1</v>
+      </c>
+      <c r="G11" s="18">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="17">
+        <v>0</v>
+      </c>
+      <c r="D12" s="18">
+        <v>1</v>
+      </c>
+      <c r="E12" s="18">
+        <v>1</v>
+      </c>
+      <c r="F12" s="18">
+        <v>1</v>
+      </c>
+      <c r="G12" s="18">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="17">
+        <v>0</v>
+      </c>
+      <c r="D13" s="18">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="18">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C14" s="17">
+        <v>0</v>
+      </c>
+      <c r="D14" s="18">
+        <v>1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15" s="17">
+        <v>0</v>
+      </c>
+      <c r="D15" s="18">
+        <v>1</v>
+      </c>
+      <c r="E15" s="18">
+        <v>1</v>
+      </c>
+      <c r="F15" s="18">
+        <v>1</v>
+      </c>
+      <c r="G15" s="18">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="18">
+        <v>1</v>
+      </c>
+      <c r="E16" s="18">
+        <v>1</v>
+      </c>
+      <c r="F16" s="18">
+        <v>1</v>
+      </c>
+      <c r="G16" s="18">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="17">
+        <v>0</v>
+      </c>
+      <c r="D17" s="18">
+        <v>1</v>
+      </c>
+      <c r="E17" s="18">
+        <v>1</v>
+      </c>
+      <c r="F17" s="18">
+        <v>1</v>
+      </c>
+      <c r="G17" s="18">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="17">
+        <v>0</v>
+      </c>
+      <c r="D18" s="18">
+        <v>1</v>
+      </c>
+      <c r="E18" s="18">
+        <v>1</v>
+      </c>
+      <c r="F18" s="18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="18">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="17">
+        <v>1</v>
+      </c>
+      <c r="D19" s="18">
+        <v>1</v>
+      </c>
+      <c r="E19" s="18">
+        <v>1</v>
+      </c>
+      <c r="F19" s="18">
+        <v>1</v>
+      </c>
+      <c r="G19" s="18">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="17">
+        <v>1</v>
+      </c>
+      <c r="D20" s="18">
+        <v>1</v>
+      </c>
+      <c r="E20" s="18">
+        <v>1</v>
+      </c>
+      <c r="F20" s="18">
+        <v>1</v>
+      </c>
+      <c r="G20" s="18">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" s="17">
+        <v>0</v>
+      </c>
+      <c r="D21" s="18">
+        <v>1</v>
+      </c>
+      <c r="E21" s="18">
+        <v>1</v>
+      </c>
+      <c r="F21" s="18">
+        <v>1</v>
+      </c>
+      <c r="G21" s="18">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="17">
+        <v>0</v>
+      </c>
+      <c r="D22" s="18">
+        <v>1</v>
+      </c>
+      <c r="E22" s="18">
+        <v>1</v>
+      </c>
+      <c r="F22" s="18">
+        <v>1</v>
+      </c>
+      <c r="G22" s="18">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23" s="17">
+        <v>0</v>
+      </c>
+      <c r="D23" s="18">
+        <v>1</v>
+      </c>
+      <c r="E23" s="18">
+        <v>1</v>
+      </c>
+      <c r="F23" s="18">
+        <v>1</v>
+      </c>
+      <c r="G23" s="18">
+        <v>1</v>
+      </c>
+      <c r="H23" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="17">
+        <v>0</v>
+      </c>
+      <c r="D24" s="18">
+        <v>1</v>
+      </c>
+      <c r="E24" s="18">
+        <v>1</v>
+      </c>
+      <c r="F24" s="18">
+        <v>1</v>
+      </c>
+      <c r="G24" s="18">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="17">
+        <v>0</v>
+      </c>
+      <c r="D25" s="18">
+        <v>1</v>
+      </c>
+      <c r="E25" s="18">
+        <v>1</v>
+      </c>
+      <c r="F25" s="18">
+        <v>1</v>
+      </c>
+      <c r="G25" s="18">
+        <v>1</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="17">
+        <v>0</v>
+      </c>
+      <c r="D26" s="18">
+        <v>1</v>
+      </c>
+      <c r="E26" s="18">
+        <v>1</v>
+      </c>
+      <c r="F26" s="18">
+        <v>1</v>
+      </c>
+      <c r="G26" s="18">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="17">
+        <v>1</v>
+      </c>
+      <c r="D27" s="18">
+        <v>1</v>
+      </c>
+      <c r="E27" s="18">
+        <v>1</v>
+      </c>
+      <c r="F27" s="18">
+        <v>1</v>
+      </c>
+      <c r="G27" s="18">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C28" s="17">
+        <v>1</v>
+      </c>
+      <c r="D28" s="18">
+        <v>1</v>
+      </c>
+      <c r="E28" s="18">
+        <v>1</v>
+      </c>
+      <c r="F28" s="18">
+        <v>1</v>
+      </c>
+      <c r="G28" s="18">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29" s="17">
+        <v>1</v>
+      </c>
+      <c r="D29" s="18">
+        <v>1</v>
+      </c>
+      <c r="E29" s="18">
+        <v>1</v>
+      </c>
+      <c r="F29" s="18">
+        <v>1</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1</v>
+      </c>
+      <c r="H29" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30" s="17">
+        <v>1</v>
+      </c>
+      <c r="D30" s="18">
+        <v>1</v>
+      </c>
+      <c r="E30" s="18">
+        <v>1</v>
+      </c>
+      <c r="F30" s="18">
+        <v>1</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" s="17">
+        <v>1</v>
+      </c>
+      <c r="D31" s="18">
+        <v>1</v>
+      </c>
+      <c r="E31" s="18">
+        <v>1</v>
+      </c>
+      <c r="F31" s="18">
+        <v>1</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" s="17">
+        <v>1</v>
+      </c>
+      <c r="D32" s="18">
+        <v>1</v>
+      </c>
+      <c r="E32" s="18">
+        <v>1</v>
+      </c>
+      <c r="F32" s="18">
+        <v>1</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" s="17">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18">
+        <v>1</v>
+      </c>
+      <c r="E33" s="18">
+        <v>1</v>
+      </c>
+      <c r="F33" s="18">
+        <v>1</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" s="17">
+        <v>1</v>
+      </c>
+      <c r="D34" s="18">
+        <v>1</v>
+      </c>
+      <c r="E34" s="18">
+        <v>1</v>
+      </c>
+      <c r="F34" s="18">
+        <v>1</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" s="17">
+        <v>1</v>
+      </c>
+      <c r="D35" s="18">
+        <v>1</v>
+      </c>
+      <c r="E35" s="18">
+        <v>1</v>
+      </c>
+      <c r="F35" s="18">
+        <v>1</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="17">
+        <v>1</v>
+      </c>
+      <c r="D36" s="18">
+        <v>1</v>
+      </c>
+      <c r="E36" s="18">
+        <v>1</v>
+      </c>
+      <c r="F36" s="18">
+        <v>1</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="17">
+        <v>1</v>
+      </c>
+      <c r="D37" s="18">
+        <v>1</v>
+      </c>
+      <c r="E37" s="18">
+        <v>1</v>
+      </c>
+      <c r="F37" s="18">
+        <v>1</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="17">
+        <v>1</v>
+      </c>
+      <c r="D38" s="18">
+        <v>1</v>
+      </c>
+      <c r="E38" s="18">
+        <v>1</v>
+      </c>
+      <c r="F38" s="18">
+        <v>1</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1</v>
+      </c>
+      <c r="H38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C39" s="17">
+        <v>1</v>
+      </c>
+      <c r="D39" s="18">
+        <v>1</v>
+      </c>
+      <c r="E39" s="18">
+        <v>1</v>
+      </c>
+      <c r="F39" s="18">
+        <v>1</v>
+      </c>
+      <c r="G39" s="18">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C40" s="17">
+        <v>1</v>
+      </c>
+      <c r="D40" s="18">
+        <v>1</v>
+      </c>
+      <c r="E40" s="18">
+        <v>1</v>
+      </c>
+      <c r="F40" s="18">
+        <v>1</v>
+      </c>
+      <c r="G40" s="18">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="17">
+        <v>1</v>
+      </c>
+      <c r="D41" s="18">
+        <v>1</v>
+      </c>
+      <c r="E41" s="18">
+        <v>1</v>
+      </c>
+      <c r="F41" s="18">
+        <v>1</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C42" s="17">
+        <v>1</v>
+      </c>
+      <c r="D42" s="18">
+        <v>1</v>
+      </c>
+      <c r="E42" s="18">
+        <v>1</v>
+      </c>
+      <c r="F42" s="18">
+        <v>1</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43" s="17">
+        <v>1</v>
+      </c>
+      <c r="D43" s="18">
+        <v>1</v>
+      </c>
+      <c r="E43" s="18">
+        <v>1</v>
+      </c>
+      <c r="F43" s="18">
+        <v>1</v>
+      </c>
+      <c r="G43" s="18">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C44" s="17">
+        <v>1</v>
+      </c>
+      <c r="D44" s="18">
+        <v>1</v>
+      </c>
+      <c r="E44" s="18">
+        <v>1</v>
+      </c>
+      <c r="F44" s="18">
+        <v>1</v>
+      </c>
+      <c r="G44" s="18">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="17">
+        <v>1</v>
+      </c>
+      <c r="D45" s="18">
+        <v>1</v>
+      </c>
+      <c r="E45" s="18">
+        <v>1</v>
+      </c>
+      <c r="F45" s="18">
+        <v>1</v>
+      </c>
+      <c r="G45" s="18">
+        <v>1</v>
+      </c>
+      <c r="H45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46" s="17">
+        <v>1</v>
+      </c>
+      <c r="D46" s="18">
+        <v>1</v>
+      </c>
+      <c r="E46" s="18">
+        <v>1</v>
+      </c>
+      <c r="F46" s="18">
+        <v>1</v>
+      </c>
+      <c r="G46" s="18">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C47" s="17">
+        <v>1</v>
+      </c>
+      <c r="D47" s="18">
+        <v>1</v>
+      </c>
+      <c r="E47" s="18">
+        <v>1</v>
+      </c>
+      <c r="F47" s="18">
+        <v>1</v>
+      </c>
+      <c r="G47" s="18">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C48" s="17">
+        <v>1</v>
+      </c>
+      <c r="D48" s="18">
+        <v>1</v>
+      </c>
+      <c r="E48" s="18">
+        <v>1</v>
+      </c>
+      <c r="F48" s="18">
+        <v>1</v>
+      </c>
+      <c r="G48" s="18">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C49" s="17">
+        <v>1</v>
+      </c>
+      <c r="D49" s="18">
+        <v>1</v>
+      </c>
+      <c r="E49" s="18">
+        <v>1</v>
+      </c>
+      <c r="F49" s="18">
+        <v>1</v>
+      </c>
+      <c r="G49" s="18">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C50" s="17">
+        <v>1</v>
+      </c>
+      <c r="D50" s="18">
+        <v>1</v>
+      </c>
+      <c r="E50" s="18">
+        <v>1</v>
+      </c>
+      <c r="F50" s="18">
+        <v>1</v>
+      </c>
+      <c r="G50" s="18">
+        <v>1</v>
+      </c>
+      <c r="H50" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51" s="17">
+        <v>1</v>
+      </c>
+      <c r="D51" s="18">
+        <v>1</v>
+      </c>
+      <c r="E51" s="18">
+        <v>1</v>
+      </c>
+      <c r="F51" s="18">
+        <v>1</v>
+      </c>
+      <c r="G51" s="18">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C52" s="17">
+        <v>1</v>
+      </c>
+      <c r="D52" s="18">
+        <v>1</v>
+      </c>
+      <c r="E52" s="18">
+        <v>1</v>
+      </c>
+      <c r="F52" s="18">
+        <v>1</v>
+      </c>
+      <c r="G52" s="18">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="17">
+        <v>1</v>
+      </c>
+      <c r="D53" s="18">
+        <v>1</v>
+      </c>
+      <c r="E53" s="18">
+        <v>1</v>
+      </c>
+      <c r="F53" s="18">
+        <v>1</v>
+      </c>
+      <c r="G53" s="18">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C54" s="17">
+        <v>1</v>
+      </c>
+      <c r="D54" s="18">
+        <v>1</v>
+      </c>
+      <c r="E54" s="18">
+        <v>1</v>
+      </c>
+      <c r="F54" s="18">
+        <v>1</v>
+      </c>
+      <c r="G54" s="18">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C55" s="17">
+        <v>1</v>
+      </c>
+      <c r="D55" s="18">
+        <v>1</v>
+      </c>
+      <c r="E55" s="18">
+        <v>1</v>
+      </c>
+      <c r="F55" s="18">
+        <v>1</v>
+      </c>
+      <c r="G55" s="18">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C56" s="17">
+        <v>1</v>
+      </c>
+      <c r="D56" s="18">
+        <v>1</v>
+      </c>
+      <c r="E56" s="18">
+        <v>1</v>
+      </c>
+      <c r="F56" s="18">
+        <v>1</v>
+      </c>
+      <c r="G56" s="18">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C57" s="17">
+        <v>1</v>
+      </c>
+      <c r="D57" s="18">
+        <v>1</v>
+      </c>
+      <c r="E57" s="18">
+        <v>1</v>
+      </c>
+      <c r="F57" s="18">
+        <v>1</v>
+      </c>
+      <c r="G57" s="18">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58" s="17">
+        <v>1</v>
+      </c>
+      <c r="D58" s="18">
+        <v>1</v>
+      </c>
+      <c r="E58" s="18">
+        <v>1</v>
+      </c>
+      <c r="F58" s="18">
+        <v>1</v>
+      </c>
+      <c r="G58" s="18">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="17">
+        <v>1</v>
+      </c>
+      <c r="D59" s="18">
+        <v>1</v>
+      </c>
+      <c r="E59" s="18">
+        <v>1</v>
+      </c>
+      <c r="F59" s="18">
+        <v>1</v>
+      </c>
+      <c r="G59" s="18">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C60" s="17">
+        <v>1</v>
+      </c>
+      <c r="D60" s="18">
+        <v>1</v>
+      </c>
+      <c r="E60" s="18">
+        <v>1</v>
+      </c>
+      <c r="F60" s="18">
+        <v>1</v>
+      </c>
+      <c r="G60" s="18">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="C2:H2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB10B6C-F9E3-463C-8262-59705ECEB05D}">
   <dimension ref="A1:H60"/>
   <sheetViews>
@@ -6636,28 +9429,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="23"/>
-      <c r="B1" s="24"/>
-      <c r="C1" s="27" t="s">
+      <c r="A1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="30"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="34"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -8175,1208 +10968,4 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{672D1AF0-CFD2-4A71-A16C-6968066E001B}">
-  <dimension ref="A1:F60"/>
-  <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="30.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" s="31"/>
-      <c r="B1" s="31"/>
-      <c r="C1" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="30"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-      <c r="C2" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="30"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="14">
-        <v>1</v>
-      </c>
-      <c r="D3" s="14">
-        <v>2</v>
-      </c>
-      <c r="E3" s="14">
-        <v>3</v>
-      </c>
-      <c r="F3" s="14">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="1">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="1">
-        <v>1</v>
-      </c>
-      <c r="D6" s="1">
-        <v>2</v>
-      </c>
-      <c r="E6" s="1">
-        <v>2</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-      <c r="D7" s="1">
-        <v>0</v>
-      </c>
-      <c r="E7" s="1">
-        <v>1</v>
-      </c>
-      <c r="F7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="1">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1</v>
-      </c>
-      <c r="D10" s="1">
-        <v>0</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-      <c r="F10" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1">
-        <v>0</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2</v>
-      </c>
-      <c r="F11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C12" s="1">
-        <v>0</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-      <c r="F12" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="1">
-        <v>0</v>
-      </c>
-      <c r="D13" s="1">
-        <v>1</v>
-      </c>
-      <c r="E13" s="1">
-        <v>2</v>
-      </c>
-      <c r="F13" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="1">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="1">
-        <v>2</v>
-      </c>
-      <c r="F14" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15" s="1">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <v>2</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="1">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0</v>
-      </c>
-      <c r="F16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C17" s="1">
-        <v>2</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1</v>
-      </c>
-      <c r="E17" s="1">
-        <v>0</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>1</v>
-      </c>
-      <c r="E18" s="1">
-        <v>2</v>
-      </c>
-      <c r="F18" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="1">
-        <v>1</v>
-      </c>
-      <c r="D19" s="1">
-        <v>1</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="1">
-        <v>1</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1</v>
-      </c>
-      <c r="E20" s="1">
-        <v>2</v>
-      </c>
-      <c r="F20" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C21" s="1">
-        <v>2</v>
-      </c>
-      <c r="D21" s="1">
-        <v>0</v>
-      </c>
-      <c r="E21" s="1">
-        <v>2</v>
-      </c>
-      <c r="F21" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1">
-        <v>1</v>
-      </c>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>2</v>
-      </c>
-      <c r="F22" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="1">
-        <v>0</v>
-      </c>
-      <c r="D23" s="1">
-        <v>0</v>
-      </c>
-      <c r="E23" s="1">
-        <v>0</v>
-      </c>
-      <c r="F23" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1">
-        <v>2</v>
-      </c>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1</v>
-      </c>
-      <c r="F24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="7" t="s">
-        <v>71</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="1">
-        <v>1</v>
-      </c>
-      <c r="D25" s="1">
-        <v>1</v>
-      </c>
-      <c r="E25" s="1">
-        <v>2</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="1">
-        <v>2</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0</v>
-      </c>
-      <c r="E26" s="1">
-        <v>1</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
-        <v>2</v>
-      </c>
-      <c r="F27" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="1">
-        <v>0</v>
-      </c>
-      <c r="D28" s="1">
-        <v>1</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0</v>
-      </c>
-      <c r="F28" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C29" s="1">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1">
-        <v>2</v>
-      </c>
-      <c r="E29" s="1">
-        <v>2</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B30" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C30" s="1">
-        <v>0</v>
-      </c>
-      <c r="D30" s="1">
-        <v>0</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0</v>
-      </c>
-      <c r="F30" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C31" s="1">
-        <v>2</v>
-      </c>
-      <c r="D31" s="1">
-        <v>2</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1</v>
-      </c>
-      <c r="F31" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C32" s="1">
-        <v>0</v>
-      </c>
-      <c r="D32" s="1">
-        <v>1</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0</v>
-      </c>
-      <c r="F32" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="1">
-        <v>1</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0</v>
-      </c>
-      <c r="F33" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>77</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C34" s="1">
-        <v>0</v>
-      </c>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0</v>
-      </c>
-      <c r="F34" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B35" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="1">
-        <v>2</v>
-      </c>
-      <c r="D35" s="1">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1">
-        <v>2</v>
-      </c>
-      <c r="F35" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C36" s="1">
-        <v>0</v>
-      </c>
-      <c r="D36" s="1">
-        <v>2</v>
-      </c>
-      <c r="E36" s="1">
-        <v>1</v>
-      </c>
-      <c r="F36" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C37" s="1">
-        <v>1</v>
-      </c>
-      <c r="D37" s="1">
-        <v>1</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="B38" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
-      <c r="D38" s="1">
-        <v>0</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0</v>
-      </c>
-      <c r="F38" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B39" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C39" s="1">
-        <v>0</v>
-      </c>
-      <c r="D39" s="1">
-        <v>0</v>
-      </c>
-      <c r="E39" s="1">
-        <v>1</v>
-      </c>
-      <c r="F39" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C40" s="1">
-        <v>2</v>
-      </c>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>2</v>
-      </c>
-      <c r="F40" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C41" s="1">
-        <v>0</v>
-      </c>
-      <c r="D41" s="1">
-        <v>0</v>
-      </c>
-      <c r="E41" s="1">
-        <v>1</v>
-      </c>
-      <c r="F41" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C42" s="1">
-        <v>1</v>
-      </c>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>2</v>
-      </c>
-      <c r="F42" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="B43" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43" s="1">
-        <v>0</v>
-      </c>
-      <c r="D43" s="1">
-        <v>2</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0</v>
-      </c>
-      <c r="F43" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B44" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C44" s="1">
-        <v>2</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0</v>
-      </c>
-      <c r="F44" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="B45" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C45" s="1">
-        <v>2</v>
-      </c>
-      <c r="D45" s="1">
-        <v>2</v>
-      </c>
-      <c r="E45" s="1">
-        <v>1</v>
-      </c>
-      <c r="F45" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="B46" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="C46" s="1">
-        <v>1</v>
-      </c>
-      <c r="D46" s="1">
-        <v>0</v>
-      </c>
-      <c r="E46" s="1">
-        <v>1</v>
-      </c>
-      <c r="F46" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A47" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C47" s="1">
-        <v>1</v>
-      </c>
-      <c r="D47" s="1">
-        <v>1</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0</v>
-      </c>
-      <c r="F47" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="B48" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C48" s="1">
-        <v>1</v>
-      </c>
-      <c r="D48" s="1">
-        <v>0</v>
-      </c>
-      <c r="E48" s="1">
-        <v>2</v>
-      </c>
-      <c r="F48" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="B49" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C49" s="1">
-        <v>0</v>
-      </c>
-      <c r="D49" s="1">
-        <v>2</v>
-      </c>
-      <c r="E49" s="1">
-        <v>2</v>
-      </c>
-      <c r="F49" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C50" s="1">
-        <v>0</v>
-      </c>
-      <c r="D50" s="1">
-        <v>1</v>
-      </c>
-      <c r="E50" s="1">
-        <v>2</v>
-      </c>
-      <c r="F50" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="B51" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0</v>
-      </c>
-      <c r="D51" s="1">
-        <v>2</v>
-      </c>
-      <c r="E51" s="1">
-        <v>2</v>
-      </c>
-      <c r="F51" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C52" s="1">
-        <v>1</v>
-      </c>
-      <c r="D52" s="1">
-        <v>0</v>
-      </c>
-      <c r="E52" s="1">
-        <v>1</v>
-      </c>
-      <c r="F52" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="B53" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C53" s="1">
-        <v>0</v>
-      </c>
-      <c r="D53" s="1">
-        <v>2</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1</v>
-      </c>
-      <c r="F53" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C54" s="1">
-        <v>0</v>
-      </c>
-      <c r="D54" s="1">
-        <v>0</v>
-      </c>
-      <c r="E54" s="1">
-        <v>2</v>
-      </c>
-      <c r="F54" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C55" s="1">
-        <v>1</v>
-      </c>
-      <c r="D55" s="1">
-        <v>0</v>
-      </c>
-      <c r="E55" s="1">
-        <v>2</v>
-      </c>
-      <c r="F55" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C56" s="1">
-        <v>2</v>
-      </c>
-      <c r="D56" s="1">
-        <v>0</v>
-      </c>
-      <c r="E56" s="1">
-        <v>1</v>
-      </c>
-      <c r="F56" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="B57" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C57" s="1">
-        <v>2</v>
-      </c>
-      <c r="D57" s="1">
-        <v>0</v>
-      </c>
-      <c r="E57" s="1">
-        <v>1</v>
-      </c>
-      <c r="F57" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="B58" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C58" s="1">
-        <v>2</v>
-      </c>
-      <c r="D58" s="1">
-        <v>0</v>
-      </c>
-      <c r="E58" s="1">
-        <v>2</v>
-      </c>
-      <c r="F58" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="B59" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="1">
-        <v>2</v>
-      </c>
-      <c r="D59" s="1">
-        <v>0</v>
-      </c>
-      <c r="E59" s="1">
-        <v>2</v>
-      </c>
-      <c r="F59" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="B60" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C60" s="1">
-        <v>0</v>
-      </c>
-      <c r="D60" s="1">
-        <v>0</v>
-      </c>
-      <c r="E60" s="1">
-        <v>1</v>
-      </c>
-      <c r="F60" s="1">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="C2:F2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>